--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3526662.292127042</v>
+        <v>3524327.180925061</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>213.7438508189458</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>39.45655134471433</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>113.7922964278911</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.748135055916205</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>192.4151402501749</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -953,16 +953,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>15.69797938778835</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>79.41653965146556</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>23.73664243899209</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>327.6861594829044</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>55.17585209939403</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>15.42290135054921</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174114</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187843</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>110.0177171766847</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>18.70843787977265</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>178.2642147042091</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>60.78102717027877</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="H37" t="n">
-        <v>1.799772605716168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>126.926382450742</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3904,19 +3904,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>127.6065435523126</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1500.227517577121</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>1500.227517577121</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1141.96181897037</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>756.1735663721261</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>345.1876615825185</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>333.5233153472115</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847235</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1500.227517577121</v>
+        <v>1604.395429084661</v>
       </c>
       <c r="X2" t="n">
-        <v>1500.227517577121</v>
+        <v>1230.929670823581</v>
       </c>
       <c r="Y2" t="n">
-        <v>1500.227517577121</v>
+        <v>1230.929670823581</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919906</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4513,25 +4513,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.86271359008</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1279.178225384193</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W4" t="n">
-        <v>1279.178225384193</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="X4" t="n">
-        <v>1279.178225384193</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>314.9273982680232</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1395.483980665509</v>
+        <v>809.2519436594666</v>
       </c>
       <c r="C5" t="n">
-        <v>1026.521463725097</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="D5" t="n">
-        <v>668.255765118347</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E5" t="n">
-        <v>668.255765118347</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>257.2698603287394</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>245.6055140934324</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.01262627016</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>1768.949738926589</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W5" t="n">
-        <v>1768.949738926589</v>
+        <v>1959.45687396048</v>
       </c>
       <c r="X5" t="n">
-        <v>1395.483980665509</v>
+        <v>1585.9911156994</v>
       </c>
       <c r="Y5" t="n">
-        <v>1395.483980665509</v>
+        <v>1195.851783723588</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>1800.470091281865</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>131.4655134886754</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C7" t="n">
-        <v>131.4655134886754</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D7" t="n">
-        <v>131.4655134886754</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>131.4655134886754</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>131.4655134886754</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1509.886307086047</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>1286.907826280783</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.34930177307</v>
+        <v>997.7894887846204</v>
       </c>
       <c r="V7" t="n">
-        <v>869.6648135671834</v>
+        <v>743.1050005787336</v>
       </c>
       <c r="W7" t="n">
-        <v>580.2476435302228</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X7" t="n">
-        <v>352.2580926322055</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y7" t="n">
-        <v>131.4655134886754</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1513.341883274785</v>
+        <v>1239.503030201924</v>
       </c>
       <c r="C8" t="n">
-        <v>1144.379366334374</v>
+        <v>870.5405132615124</v>
       </c>
       <c r="D8" t="n">
-        <v>786.1136677276231</v>
+        <v>512.2748146547618</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2663.546813575798</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2290.081055314718</v>
+        <v>2016.242202241858</v>
       </c>
       <c r="Y8" t="n">
-        <v>1899.941723338907</v>
+        <v>1626.102870266046</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5030,58 +5030,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637308</v>
+        <v>924.834428639718</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890283</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.11872044489</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684177</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>214.9229991561145</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>710.2486053718729</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1307.627092998425</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998425</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,40 +5525,40 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>924.834428639718</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,46 +5732,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5953,7 +5953,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1963.765362972543</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1963.765362972543</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2387.388512467611</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1320.560501433898</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1872.470231673185</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
-        <v>2296.093381168253</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q30" t="n">
-        <v>2529.355041543135</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6923,43 +6923,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245714</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>776.17510664033</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266882</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7072,34 +7072,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7163,40 +7163,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797183</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438179</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>241.7297566303649</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797183</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797183</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797183</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,61 +7397,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797183</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637304</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444888</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684175</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1559.490355317017</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1270.073185280056</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1042.083634382039</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7713,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188007</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057737</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490404</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>193.3273467878343</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111057</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>54.95314511566465</v>
       </c>
       <c r="P6" t="n">
-        <v>193.3273467878351</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>38.1389282762425</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>36.41624546988446</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>31.13893193492463</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>106.4657939283491</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>19.50758019582713</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.45968844823108</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,13 +25837,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>45.44677382459307</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>674435.1602544276</v>
+        <v>674435.1602544275</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>674435.1602544275</v>
+        <v>674435.1602544276</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>674435.1602544276</v>
+        <v>674435.1602544275</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>674435.1602544275</v>
+        <v>674435.1602544276</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.604713255</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="J2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="K2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="M2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="N2" t="n">
+        <v>746610.6047132557</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="L2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132555</v>
-      </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
     </row>
     <row r="3">
@@ -26369,19 +26369,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.026689228136092e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26421,40 +26421,40 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810783</v>
+        <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675655</v>
+        <v>9337.200356756672</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756573</v>
+        <v>9337.200356756697</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.200356756694</v>
       </c>
       <c r="H4" t="n">
+        <v>9337.200356756613</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9337.200356756644</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9337.20035675657</v>
+      </c>
+      <c r="K4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="I4" t="n">
-        <v>9337.200356756603</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
+        <v>9337.200356756624</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="N4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="K4" t="n">
-        <v>9337.200356756613</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
         <v>9337.200356756592</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.200356756674</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9337.200356756674</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9337.200356756683</v>
       </c>
       <c r="P4" t="n">
         <v>9337.200356756592</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-584952.1925834044</v>
+        <v>-584952.1925834046</v>
       </c>
       <c r="C6" t="n">
-        <v>529799.5909925153</v>
+        <v>529799.5909925151</v>
       </c>
       <c r="D6" t="n">
         <v>370378.3209946234</v>
       </c>
       <c r="E6" t="n">
-        <v>310738.4127252362</v>
+        <v>310703.6747998006</v>
       </c>
       <c r="F6" t="n">
-        <v>636150.8745325918</v>
+        <v>636116.136607156</v>
       </c>
       <c r="G6" t="n">
-        <v>636150.8745325917</v>
+        <v>636116.1366071554</v>
       </c>
       <c r="H6" t="n">
-        <v>636150.874532592</v>
+        <v>636116.1366071558</v>
       </c>
       <c r="I6" t="n">
-        <v>636150.8745325916</v>
+        <v>636116.1366071558</v>
       </c>
       <c r="J6" t="n">
-        <v>468545.6967226092</v>
+        <v>468510.9587971733</v>
       </c>
       <c r="K6" t="n">
-        <v>636150.8745325917</v>
+        <v>636116.1366071561</v>
       </c>
       <c r="L6" t="n">
-        <v>587856.9045244009</v>
+        <v>587822.1665989655</v>
       </c>
       <c r="M6" t="n">
-        <v>551095.8465970797</v>
+        <v>551061.108671644</v>
       </c>
       <c r="N6" t="n">
-        <v>636150.8745325913</v>
+        <v>636116.1366071564</v>
       </c>
       <c r="O6" t="n">
-        <v>636150.8745325918</v>
+        <v>636116.136607156</v>
       </c>
       <c r="P6" t="n">
-        <v>636150.8745325913</v>
+        <v>636116.1366071561</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26747,7 +26747,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>87.27470174345962</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>309.7844173726987</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>66.03968375404622</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>208.8365182961786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>108.6034123122304</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>333.5429893296247</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>86.89006039333863</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>170.9258179227454</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>21.55480923450864</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>314.555248579075</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>271.1000969860418</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,10 +28087,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.672078567559044e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.410886761382771e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>483.327463607517</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060514</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963282</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>446.012731199064</v>
+        <v>322.7581251332991</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460043</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32549,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>173.385139958665</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32786,37 +32786,37 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>307.3280120589143</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,25 +33020,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R30" t="n">
-        <v>169.6252075171357</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,25 +33497,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,40 +33731,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305202</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,37 +33971,37 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362267</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>173.3851399586646</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704916</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>227.8611086463993</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>443.0068759113666</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419603</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>390.3778271117877</v>
       </c>
       <c r="P6" t="n">
-        <v>443.0068759113673</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>340.7312191630726</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>120.5443928316925</v>
       </c>
       <c r="L15" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>303.8786972770457</v>
+        <v>180.6240912112808</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243176</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>31.2511060366467</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>167.3462379728927</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R30" t="n">
-        <v>23.94570355317173</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561612</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402486</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>31.25110603664623</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561613</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
